--- a/ig/ch-epr-term/ValueSet-DocumentEntry.authorSpeciality.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.authorSpeciality.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -550,19 +550,19 @@
     <t>1051</t>
   </si>
   <si>
-    <t>General Internal Medicine</t>
+    <t>General Internal medicine</t>
   </si>
   <si>
     <t>1052</t>
   </si>
   <si>
-    <t>Offizinpharmazie</t>
+    <t>Community pharmacy</t>
   </si>
   <si>
     <t>1053</t>
   </si>
   <si>
-    <t>Spitalpharmazie</t>
+    <t>Hospital pharmacy</t>
   </si>
   <si>
     <t>1054</t>
@@ -574,13 +574,13 @@
     <t>1055</t>
   </si>
   <si>
-    <t>Child and Adolescent Psychology</t>
+    <t>Child and adolescent psychology</t>
   </si>
   <si>
     <t>1056</t>
   </si>
   <si>
-    <t>Clinical Psychology</t>
+    <t>Clinical psychology</t>
   </si>
   <si>
     <t>1057</t>
@@ -592,7 +592,7 @@
     <t>1058</t>
   </si>
   <si>
-    <t>Health Psychology</t>
+    <t>Health psychology</t>
   </si>
   <si>
     <t>1059</t>
@@ -735,10 +735,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ch-epr-term/ValueSet-DocumentEntry.authorSpeciality.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.authorSpeciality.xlsx
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.756.5.30.1.127.3.10.1.1.4 (use: OFFICIAL)</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:2.16.756.5.30.1.127.3.10.1.1.4 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
